--- a/src/data/koine_workbook.xlsx
+++ b/src/data/koine_workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dylan.Howard/Development/GraduatedInterlinear/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3B6ECC44-C1E3-C24D-B3E9-4AC98F1C170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E0A2C-5954-864C-9613-A60B46BC873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="760" windowWidth="16440" windowHeight="17440" activeTab="3"/>
+    <workbookView xWindow="4060" yWindow="760" windowWidth="26180" windowHeight="17440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocab" sheetId="1" r:id="rId1"/>
     <sheet name="occurances" sheetId="2" r:id="rId2"/>
     <sheet name="grammar" sheetId="3" r:id="rId3"/>
     <sheet name="morphology" sheetId="4" r:id="rId4"/>
+    <sheet name="2John" sheetId="5" r:id="rId5"/>
+    <sheet name="3John" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vocab!$A$1:$D$347</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1575">
   <si>
     <t>rootId</t>
   </si>
@@ -4263,13 +4265,514 @@
   </si>
   <si>
     <t>δικαιοσύνη, ἡ</t>
+  </si>
+  <si>
+    <t>Ὁ</t>
+  </si>
+  <si>
+    <t>πρεσβύτερος</t>
+  </si>
+  <si>
+    <t>ἐκλεκτῇ</t>
+  </si>
+  <si>
+    <t>κυρίᾳ</t>
+  </si>
+  <si>
+    <t>τέκνοις</t>
+  </si>
+  <si>
+    <t>αὐτῆς,</t>
+  </si>
+  <si>
+    <t>οὓς</t>
+  </si>
+  <si>
+    <t>ἐγὼ</t>
+  </si>
+  <si>
+    <t>ἀγαπῶ</t>
+  </si>
+  <si>
+    <t>ἀληθείᾳ,</t>
+  </si>
+  <si>
+    <t>οὐκ</t>
+  </si>
+  <si>
+    <t>μόνος</t>
+  </si>
+  <si>
+    <t>ἀλλὰ</t>
+  </si>
+  <si>
+    <t>πάντες</t>
+  </si>
+  <si>
+    <t>οἱ</t>
+  </si>
+  <si>
+    <t>ἐγνωκότες</t>
+  </si>
+  <si>
+    <t>τὴν</t>
+  </si>
+  <si>
+    <t>ἀλήθειαν,</t>
+  </si>
+  <si>
+    <t>διὰ</t>
+  </si>
+  <si>
+    <t>ἀλήθειαν</t>
+  </si>
+  <si>
+    <t>μένουσαν</t>
+  </si>
+  <si>
+    <t>ἡμῖν,</t>
+  </si>
+  <si>
+    <t>μεθʼ</t>
+  </si>
+  <si>
+    <t>ἔσται</t>
+  </si>
+  <si>
+    <t>τὸν</t>
+  </si>
+  <si>
+    <t>αἰῶνα·</t>
+  </si>
+  <si>
+    <t>χάρις</t>
+  </si>
+  <si>
+    <t>ἔλεος</t>
+  </si>
+  <si>
+    <t>εἰρήνη</t>
+  </si>
+  <si>
+    <t>παρὰ</t>
+  </si>
+  <si>
+    <t>θεοῦ</t>
+  </si>
+  <si>
+    <t>πατρός,</t>
+  </si>
+  <si>
+    <t>Ἰησοῦ</t>
+  </si>
+  <si>
+    <t>Χριστοῦ</t>
+  </si>
+  <si>
+    <t>υἱοῦ</t>
+  </si>
+  <si>
+    <t>ἀληθείᾳ</t>
+  </si>
+  <si>
+    <t>ἀγάπῃ.</t>
+  </si>
+  <si>
+    <t>Ἐχάρην</t>
+  </si>
+  <si>
+    <t>λίαν</t>
+  </si>
+  <si>
+    <t>εὕρηκα</t>
+  </si>
+  <si>
+    <t>τῶν</t>
+  </si>
+  <si>
+    <t>τέκνων</t>
+  </si>
+  <si>
+    <t>σου</t>
+  </si>
+  <si>
+    <t>περιπατοῦντας</t>
+  </si>
+  <si>
+    <t>καθὼς</t>
+  </si>
+  <si>
+    <t>ἐντολὴν</t>
+  </si>
+  <si>
+    <t>ἐλάβομεν</t>
+  </si>
+  <si>
+    <t>πατρός.</t>
+  </si>
+  <si>
+    <t>ἐρωτῶ</t>
+  </si>
+  <si>
+    <t>σε,</t>
+  </si>
+  <si>
+    <t>κυρία,</t>
+  </si>
+  <si>
+    <t>οὐχ</t>
+  </si>
+  <si>
+    <t>καινὴν</t>
+  </si>
+  <si>
+    <t>γράφων</t>
+  </si>
+  <si>
+    <t>σοι</t>
+  </si>
+  <si>
+    <t>ἣν</t>
+  </si>
+  <si>
+    <t>εἴχομεν</t>
+  </si>
+  <si>
+    <t>ἀπʼ</t>
+  </si>
+  <si>
+    <t>ἀρχῆς,</t>
+  </si>
+  <si>
+    <t>ἀγαπῶμεν</t>
+  </si>
+  <si>
+    <t>ἀλλήλους.</t>
+  </si>
+  <si>
+    <t>αὕτη</t>
+  </si>
+  <si>
+    <t>ἐστὶν</t>
+  </si>
+  <si>
+    <t>ἡ</t>
+  </si>
+  <si>
+    <t>ἀγάπη,</t>
+  </si>
+  <si>
+    <t>περιπατῶμεν</t>
+  </si>
+  <si>
+    <t>κατὰ</t>
+  </si>
+  <si>
+    <t>τὰς</t>
+  </si>
+  <si>
+    <t>ἐντολὰς</t>
+  </si>
+  <si>
+    <t>αὐτοῦ·</t>
+  </si>
+  <si>
+    <t>ἐντολή</t>
+  </si>
+  <si>
+    <t>ἐστιν,</t>
+  </si>
+  <si>
+    <t>ἠκούσατε</t>
+  </si>
+  <si>
+    <t>αὐτῇ</t>
+  </si>
+  <si>
+    <t>περιπατῆτε.</t>
+  </si>
+  <si>
+    <t>πολλοὶ</t>
+  </si>
+  <si>
+    <t>πλάνοι</t>
+  </si>
+  <si>
+    <t>ἐξῆλθον</t>
+  </si>
+  <si>
+    <t>κόσμον,</t>
+  </si>
+  <si>
+    <t>μὴ</t>
+  </si>
+  <si>
+    <t>ὁμολογοῦντες</t>
+  </si>
+  <si>
+    <t>Ἰησοῦν</t>
+  </si>
+  <si>
+    <t>Χριστὸν</t>
+  </si>
+  <si>
+    <t>ἐρχόμενον</t>
+  </si>
+  <si>
+    <t>σαρκί·</t>
+  </si>
+  <si>
+    <t>οὗτός</t>
+  </si>
+  <si>
+    <t>ἐστιν</t>
+  </si>
+  <si>
+    <t>ὁ</t>
+  </si>
+  <si>
+    <t>πλάνος</t>
+  </si>
+  <si>
+    <t>ἀντίχριστος.</t>
+  </si>
+  <si>
+    <t>βλέπετε</t>
+  </si>
+  <si>
+    <t>ἑαυτούς,</t>
+  </si>
+  <si>
+    <t>ἀπολέσητε</t>
+  </si>
+  <si>
+    <t>ἃ</t>
+  </si>
+  <si>
+    <t>εἰργασάμεθα,</t>
+  </si>
+  <si>
+    <t>μισθὸν</t>
+  </si>
+  <si>
+    <t>πλήρη</t>
+  </si>
+  <si>
+    <t>ἀπολάβητε.</t>
+  </si>
+  <si>
+    <t>πᾶς</t>
+  </si>
+  <si>
+    <t>προάγων</t>
+  </si>
+  <si>
+    <t>μένων</t>
+  </si>
+  <si>
+    <t>τῇ</t>
+  </si>
+  <si>
+    <t>διδαχῇ</t>
+  </si>
+  <si>
+    <t>θεὸν</t>
+  </si>
+  <si>
+    <t>ἔχει·</t>
+  </si>
+  <si>
+    <t>διδαχῇ,</t>
+  </si>
+  <si>
+    <t>οὗτος</t>
+  </si>
+  <si>
+    <t>πατέρα</t>
+  </si>
+  <si>
+    <t>υἱὸν</t>
+  </si>
+  <si>
+    <t>ἔχει.</t>
+  </si>
+  <si>
+    <t>εἴ</t>
+  </si>
+  <si>
+    <t>τις</t>
+  </si>
+  <si>
+    <t>ἔρχεται</t>
+  </si>
+  <si>
+    <t>πρὸς</t>
+  </si>
+  <si>
+    <t>ὑμᾶς</t>
+  </si>
+  <si>
+    <t>ταύτην</t>
+  </si>
+  <si>
+    <t>διδαχὴν</t>
+  </si>
+  <si>
+    <t>φέρει,</t>
+  </si>
+  <si>
+    <t>λαμβάνετε</t>
+  </si>
+  <si>
+    <t>αὐτὸν</t>
+  </si>
+  <si>
+    <t>οἰκίαν</t>
+  </si>
+  <si>
+    <t>χαίρειν</t>
+  </si>
+  <si>
+    <t>αὐτῷ</t>
+  </si>
+  <si>
+    <t>λέγετε·</t>
+  </si>
+  <si>
+    <t>λέγων</t>
+  </si>
+  <si>
+    <t>γὰρ</t>
+  </si>
+  <si>
+    <t>κοινωνεῖ</t>
+  </si>
+  <si>
+    <t>ἔργοις</t>
+  </si>
+  <si>
+    <t>αὐτοῦ</t>
+  </si>
+  <si>
+    <t>πονηροῖς.</t>
+  </si>
+  <si>
+    <t>Πολλὰ</t>
+  </si>
+  <si>
+    <t>ἔχων</t>
+  </si>
+  <si>
+    <t>ὑμῖν</t>
+  </si>
+  <si>
+    <t>γράφειν</t>
+  </si>
+  <si>
+    <t>ἐβουλήθην</t>
+  </si>
+  <si>
+    <t>χάρτου</t>
+  </si>
+  <si>
+    <t>μέλανος,</t>
+  </si>
+  <si>
+    <t>ἐλπίζω</t>
+  </si>
+  <si>
+    <t>γενέσθαι</t>
+  </si>
+  <si>
+    <t>στόμα</t>
+  </si>
+  <si>
+    <t>λαλῆσαι,</t>
+  </si>
+  <si>
+    <t>χαρὰ</t>
+  </si>
+  <si>
+    <t>ὑμῶν</t>
+  </si>
+  <si>
+    <t>πεπληρωμένη</t>
+  </si>
+  <si>
+    <t>ᾖ.</t>
+  </si>
+  <si>
+    <t>Ἀσπάζεταί</t>
+  </si>
+  <si>
+    <t>σε</t>
+  </si>
+  <si>
+    <t>τὰ</t>
+  </si>
+  <si>
+    <t>τέκνα</t>
+  </si>
+  <si>
+    <t>ἀδελφῆς</t>
+  </si>
+  <si>
+    <t>ἐκλεκτῆς.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>declensionId</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4418,6 +4921,12 @@
       <name val="PT Sans"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4761,11 +5270,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5120,7 +5630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D347"/>
   <sheetViews>
@@ -9993,7 +10503,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D347">
+  <autoFilter ref="A1:D347" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="#N/A"/>
@@ -10005,7 +10515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView topLeftCell="A233" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -10033,7 +10543,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="str">
-        <f>LEFT(A2,IFERROR(FIND(",",A2)-1,LEN(A2)))</f>
+        <f t="shared" ref="B2:B65" si="0">LEFT(A2,IFERROR(FIND(",",A2)-1,LEN(A2)))</f>
         <v>ὁ</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -10051,7 +10561,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3,IFERROR(FIND(",",A3)-1,LEN(A3)))</f>
+        <f t="shared" si="0"/>
         <v>καί</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -10069,7 +10579,7 @@
         <v>212</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4,IFERROR(FIND(",",A4)-1,LEN(A4)))</f>
+        <f t="shared" si="0"/>
         <v>αὐτός</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -10087,7 +10597,7 @@
         <v>218</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5,IFERROR(FIND(",",A5)-1,LEN(A5)))</f>
+        <f t="shared" si="0"/>
         <v>σύ</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -10105,7 +10615,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6,IFERROR(FIND(",",A6)-1,LEN(A6)))</f>
+        <f t="shared" si="0"/>
         <v>δέ</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -10123,7 +10633,7 @@
         <v>190</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7,IFERROR(FIND(",",A7)-1,LEN(A7)))</f>
+        <f t="shared" si="0"/>
         <v>ἐν</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -10141,7 +10651,7 @@
         <v>214</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8,IFERROR(FIND(",",A8)-1,LEN(A8)))</f>
+        <f t="shared" si="0"/>
         <v>ἐγώ</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -10159,7 +10669,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9,IFERROR(FIND(",",A9)-1,LEN(A9)))</f>
+        <f t="shared" si="0"/>
         <v>εἰμί</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -10177,7 +10687,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10,IFERROR(FIND(",",A10)-1,LEN(A10)))</f>
+        <f t="shared" si="0"/>
         <v>λέγω</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -10195,7 +10705,7 @@
         <v>186</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11,IFERROR(FIND(",",A11)-1,LEN(A11)))</f>
+        <f t="shared" si="0"/>
         <v>εἰς</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -10213,7 +10723,7 @@
         <v>697</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12,IFERROR(FIND(",",A12)-1,LEN(A12)))</f>
+        <f t="shared" si="0"/>
         <v>οὐ</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -10231,7 +10741,7 @@
         <v>700</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13,IFERROR(FIND(",",A13)-1,LEN(A13)))</f>
+        <f t="shared" si="0"/>
         <v>ὅς</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -10249,7 +10759,7 @@
         <v>540</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14,IFERROR(FIND(",",A14)-1,LEN(A14)))</f>
+        <f t="shared" si="0"/>
         <v>οὗτος</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -10267,7 +10777,7 @@
         <v>705</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15,IFERROR(FIND(",",A15)-1,LEN(A15)))</f>
+        <f t="shared" si="0"/>
         <v>θεός</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -10285,7 +10795,7 @@
         <v>92</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16,IFERROR(FIND(",",A16)-1,LEN(A16)))</f>
+        <f t="shared" si="0"/>
         <v>ὅτι</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -10303,7 +10813,7 @@
         <v>430</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17,IFERROR(FIND(",",A17)-1,LEN(A17)))</f>
+        <f t="shared" si="0"/>
         <v>πᾶς</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -10321,7 +10831,7 @@
         <v>501</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18,IFERROR(FIND(",",A18)-1,LEN(A18)))</f>
+        <f t="shared" si="0"/>
         <v>μή</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -10339,7 +10849,7 @@
         <v>137</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19,IFERROR(FIND(",",A19)-1,LEN(A19)))</f>
+        <f t="shared" si="0"/>
         <v>γάρ</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -10357,7 +10867,7 @@
         <v>716</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20,IFERROR(FIND(",",A20)-1,LEN(A20)))</f>
+        <f t="shared" si="0"/>
         <v>Ἰησοῦς</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -10375,7 +10885,7 @@
         <v>719</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21,IFERROR(FIND(",",A21)-1,LEN(A21)))</f>
+        <f t="shared" si="0"/>
         <v>ἐκ</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -10393,7 +10903,7 @@
         <v>192</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22,IFERROR(FIND(",",A22)-1,LEN(A22)))</f>
+        <f t="shared" si="0"/>
         <v>ἐπί</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -10411,7 +10921,7 @@
         <v>724</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23,IFERROR(FIND(",",A23)-1,LEN(A23)))</f>
+        <f t="shared" si="0"/>
         <v>κύριος</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -10429,7 +10939,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24,IFERROR(FIND(",",A24)-1,LEN(A24)))</f>
+        <f t="shared" si="0"/>
         <v>ἔχω</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -10447,7 +10957,7 @@
         <v>202</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25,IFERROR(FIND(",",A25)-1,LEN(A25)))</f>
+        <f t="shared" si="0"/>
         <v>πρός</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -10465,7 +10975,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26,IFERROR(FIND(",",A26)-1,LEN(A26)))</f>
+        <f t="shared" si="0"/>
         <v>γίνομαι</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -10483,7 +10993,7 @@
         <v>184</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27,IFERROR(FIND(",",A27)-1,LEN(A27)))</f>
+        <f t="shared" si="0"/>
         <v>διά</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -10501,7 +11011,7 @@
         <v>605</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28,IFERROR(FIND(",",A28)-1,LEN(A28)))</f>
+        <f t="shared" si="0"/>
         <v>ἵνα</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -10519,7 +11029,7 @@
         <v>182</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29,IFERROR(FIND(",",A29)-1,LEN(A29)))</f>
+        <f t="shared" si="0"/>
         <v>ἀπό</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -10537,7 +11047,7 @@
         <v>90</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30,IFERROR(FIND(",",A30)-1,LEN(A30)))</f>
+        <f t="shared" si="0"/>
         <v>ἀλλά</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -10555,7 +11065,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31,IFERROR(FIND(",",A31)-1,LEN(A31)))</f>
+        <f t="shared" si="0"/>
         <v>ἔρχομαι</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -10573,7 +11083,7 @@
         <v>177</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32,IFERROR(FIND(",",A32)-1,LEN(A32)))</f>
+        <f t="shared" si="0"/>
         <v>ποιέω</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -10591,7 +11101,7 @@
         <v>546</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33,IFERROR(FIND(",",A33)-1,LEN(A33)))</f>
+        <f t="shared" si="0"/>
         <v>τίς</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10609,7 +11119,7 @@
         <v>745</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34,IFERROR(FIND(",",A34)-1,LEN(A34)))</f>
+        <f t="shared" si="0"/>
         <v>ἄνθρωπος</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -10627,7 +11137,7 @@
         <v>544</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35,IFERROR(FIND(",",A35)-1,LEN(A35)))</f>
+        <f t="shared" si="0"/>
         <v>τις</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -10645,7 +11155,7 @@
         <v>749</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36,IFERROR(FIND(",",A36)-1,LEN(A36)))</f>
+        <f t="shared" si="0"/>
         <v>Χριστός</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -10663,7 +11173,7 @@
         <v>121</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37,IFERROR(FIND(",",A37)-1,LEN(A37)))</f>
+        <f t="shared" si="0"/>
         <v>ὡς</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -10681,7 +11191,7 @@
         <v>116</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38,IFERROR(FIND(",",A38)-1,LEN(A38)))</f>
+        <f t="shared" si="0"/>
         <v>εἰ</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -10699,7 +11209,7 @@
         <v>143</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39,IFERROR(FIND(",",A39)-1,LEN(A39)))</f>
+        <f t="shared" si="0"/>
         <v>οὖν</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -10717,7 +11227,7 @@
         <v>194</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40,IFERROR(FIND(",",A40)-1,LEN(A40)))</f>
+        <f t="shared" si="0"/>
         <v>κατά</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -10735,7 +11245,7 @@
         <v>196</v>
       </c>
       <c r="B41" t="str">
-        <f>LEFT(A41,IFERROR(FIND(",",A41)-1,LEN(A41)))</f>
+        <f t="shared" si="0"/>
         <v>μετά</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -10753,7 +11263,7 @@
         <v>391</v>
       </c>
       <c r="B42" t="str">
-        <f>LEFT(A42,IFERROR(FIND(",",A42)-1,LEN(A42)))</f>
+        <f t="shared" si="0"/>
         <v>ὁράω</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -10771,7 +11281,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="str">
-        <f>LEFT(A43,IFERROR(FIND(",",A43)-1,LEN(A43)))</f>
+        <f t="shared" si="0"/>
         <v>ἀκούω</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -10789,7 +11299,7 @@
         <v>434</v>
       </c>
       <c r="B44" t="str">
-        <f>LEFT(A44,IFERROR(FIND(",",A44)-1,LEN(A44)))</f>
+        <f t="shared" si="0"/>
         <v>πολύς</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -10807,7 +11317,7 @@
         <v>656</v>
       </c>
       <c r="B45" t="str">
-        <f>LEFT(A45,IFERROR(FIND(",",A45)-1,LEN(A45)))</f>
+        <f t="shared" si="0"/>
         <v>δίδωμι</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -10825,7 +11335,7 @@
         <v>363</v>
       </c>
       <c r="B46" t="str">
-        <f>LEFT(A46,IFERROR(FIND(",",A46)-1,LEN(A46)))</f>
+        <f t="shared" si="0"/>
         <v>πατήρ</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -10843,7 +11353,7 @@
         <v>771</v>
       </c>
       <c r="B47" t="str">
-        <f>LEFT(A47,IFERROR(FIND(",",A47)-1,LEN(A47)))</f>
+        <f t="shared" si="0"/>
         <v>ἡμέρα</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -10861,7 +11371,7 @@
         <v>774</v>
       </c>
       <c r="B48" t="str">
-        <f>LEFT(A48,IFERROR(FIND(",",A48)-1,LEN(A48)))</f>
+        <f t="shared" si="0"/>
         <v>πνεῦμα</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -10879,7 +11389,7 @@
         <v>777</v>
       </c>
       <c r="B49" t="str">
-        <f>LEFT(A49,IFERROR(FIND(",",A49)-1,LEN(A49)))</f>
+        <f t="shared" si="0"/>
         <v>υἱός</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -10897,7 +11407,7 @@
         <v>477</v>
       </c>
       <c r="B50" t="str">
-        <f>LEFT(A50,IFERROR(FIND(",",A50)-1,LEN(A50)))</f>
+        <f t="shared" si="0"/>
         <v>εἷς</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -10915,7 +11425,7 @@
         <v>782</v>
       </c>
       <c r="B51" t="str">
-        <f>LEFT(A51,IFERROR(FIND(",",A51)-1,LEN(A51)))</f>
+        <f t="shared" si="0"/>
         <v>ἀδελφός</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -10933,7 +11443,7 @@
         <v>442</v>
       </c>
       <c r="B52" t="str">
-        <f>LEFT(A52,IFERROR(FIND(",",A52)-1,LEN(A52)))</f>
+        <f t="shared" si="0"/>
         <v>ἤ</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -10951,7 +11461,7 @@
         <v>601</v>
       </c>
       <c r="B53" t="str">
-        <f>LEFT(A53,IFERROR(FIND(",",A53)-1,LEN(A53)))</f>
+        <f t="shared" si="0"/>
         <v>ἐάν</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -10969,7 +11479,7 @@
         <v>200</v>
       </c>
       <c r="B54" t="str">
-        <f>LEFT(A54,IFERROR(FIND(",",A54)-1,LEN(A54)))</f>
+        <f t="shared" si="0"/>
         <v>περί</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -10987,7 +11497,7 @@
         <v>789</v>
       </c>
       <c r="B55" t="str">
-        <f>LEFT(A55,IFERROR(FIND(",",A55)-1,LEN(A55)))</f>
+        <f t="shared" si="0"/>
         <v>λόγος</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -11005,7 +11515,7 @@
         <v>534</v>
       </c>
       <c r="B56" t="str">
-        <f>LEFT(A56,IFERROR(FIND(",",A56)-1,LEN(A56)))</f>
+        <f t="shared" si="0"/>
         <v>ἑαυτοῦ</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -11023,7 +11533,7 @@
         <v>389</v>
       </c>
       <c r="B57" t="str">
-        <f>LEFT(A57,IFERROR(FIND(",",A57)-1,LEN(A57)))</f>
+        <f t="shared" si="0"/>
         <v>οἶδα</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -11041,7 +11551,7 @@
         <v>169</v>
       </c>
       <c r="B58" t="str">
-        <f>LEFT(A58,IFERROR(FIND(",",A58)-1,LEN(A58)))</f>
+        <f t="shared" si="0"/>
         <v>λαλέω</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -11059,7 +11569,7 @@
         <v>796</v>
       </c>
       <c r="B59" t="str">
-        <f>LEFT(A59,IFERROR(FIND(",",A59)-1,LEN(A59)))</f>
+        <f t="shared" si="0"/>
         <v>οὐρανός</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -11077,7 +11587,7 @@
         <v>798</v>
       </c>
       <c r="B60" t="str">
-        <f>LEFT(A60,IFERROR(FIND(",",A60)-1,LEN(A60)))</f>
+        <f t="shared" si="0"/>
         <v>μαθητής</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -11095,7 +11605,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="str">
-        <f>LEFT(A61,IFERROR(FIND(",",A61)-1,LEN(A61)))</f>
+        <f t="shared" si="0"/>
         <v>λαμβάνω</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -11113,7 +11623,7 @@
         <v>802</v>
       </c>
       <c r="B62" t="str">
-        <f>LEFT(A62,IFERROR(FIND(",",A62)-1,LEN(A62)))</f>
+        <f t="shared" si="0"/>
         <v>γῆ</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -11131,7 +11641,7 @@
         <v>426</v>
       </c>
       <c r="B63" t="str">
-        <f>LEFT(A63,IFERROR(FIND(",",A63)-1,LEN(A63)))</f>
+        <f t="shared" si="0"/>
         <v>μέγας</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -11149,7 +11659,7 @@
         <v>369</v>
       </c>
       <c r="B64" t="str">
-        <f>LEFT(A64,IFERROR(FIND(",",A64)-1,LEN(A64)))</f>
+        <f t="shared" si="0"/>
         <v>πίστις</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -11167,7 +11677,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="str">
-        <f>LEFT(A65,IFERROR(FIND(",",A65)-1,LEN(A65)))</f>
+        <f t="shared" si="0"/>
         <v>πιστεύω</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -11185,7 +11695,7 @@
         <v>536</v>
       </c>
       <c r="B66" t="str">
-        <f>LEFT(A66,IFERROR(FIND(",",A66)-1,LEN(A66)))</f>
+        <f t="shared" ref="B66:B129" si="1">LEFT(A66,IFERROR(FIND(",",A66)-1,LEN(A66)))</f>
         <v>ἐκεῖνος</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -11203,7 +11713,7 @@
         <v>458</v>
       </c>
       <c r="B67" t="str">
-        <f>LEFT(A67,IFERROR(FIND(",",A67)-1,LEN(A67)))</f>
+        <f t="shared" si="1"/>
         <v>οὐδείς</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -11221,7 +11731,7 @@
         <v>814</v>
       </c>
       <c r="B68" t="str">
-        <f>LEFT(A68,IFERROR(FIND(",",A68)-1,LEN(A68)))</f>
+        <f t="shared" si="1"/>
         <v>ἅγιος</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -11239,7 +11749,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="str">
-        <f>LEFT(A69,IFERROR(FIND(",",A69)-1,LEN(A69)))</f>
+        <f t="shared" si="1"/>
         <v>ἀποκρίνομαι</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -11257,7 +11767,7 @@
         <v>818</v>
       </c>
       <c r="B70" t="str">
-        <f>LEFT(A70,IFERROR(FIND(",",A70)-1,LEN(A70)))</f>
+        <f t="shared" si="1"/>
         <v>ὄνομα</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -11275,7 +11785,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="str">
-        <f>LEFT(A71,IFERROR(FIND(",",A71)-1,LEN(A71)))</f>
+        <f t="shared" si="1"/>
         <v>γινώσκω</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -11293,7 +11803,7 @@
         <v>208</v>
       </c>
       <c r="B72" t="str">
-        <f>LEFT(A72,IFERROR(FIND(",",A72)-1,LEN(A72)))</f>
+        <f t="shared" si="1"/>
         <v>ὑπό</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -11311,7 +11821,7 @@
         <v>313</v>
       </c>
       <c r="B73" t="str">
-        <f>LEFT(A73,IFERROR(FIND(",",A73)-1,LEN(A73)))</f>
+        <f t="shared" si="1"/>
         <v>ἐξέρχομαι</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -11329,7 +11839,7 @@
         <v>357</v>
       </c>
       <c r="B74" t="str">
-        <f>LEFT(A74,IFERROR(FIND(",",A74)-1,LEN(A74)))</f>
+        <f t="shared" si="1"/>
         <v>ἀνήρ</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -11347,7 +11857,7 @@
         <v>827</v>
       </c>
       <c r="B75" t="str">
-        <f>LEFT(A75,IFERROR(FIND(",",A75)-1,LEN(A75)))</f>
+        <f t="shared" si="1"/>
         <v>γυνή</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -11365,7 +11875,7 @@
         <v>147</v>
       </c>
       <c r="B76" t="str">
-        <f>LEFT(A76,IFERROR(FIND(",",A76)-1,LEN(A76)))</f>
+        <f t="shared" si="1"/>
         <v>τέ</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -11383,7 +11893,7 @@
         <v>570</v>
       </c>
       <c r="B77" t="str">
-        <f>LEFT(A77,IFERROR(FIND(",",A77)-1,LEN(A77)))</f>
+        <f t="shared" si="1"/>
         <v>δύναμαι</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -11401,7 +11911,7 @@
         <v>572</v>
       </c>
       <c r="B78" t="str">
-        <f>LEFT(A78,IFERROR(FIND(",",A78)-1,LEN(A78)))</f>
+        <f t="shared" si="1"/>
         <v>θέλω</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -11419,7 +11929,7 @@
         <v>836</v>
       </c>
       <c r="B79" t="str">
-        <f>LEFT(A79,IFERROR(FIND(",",A79)-1,LEN(A79)))</f>
+        <f t="shared" si="1"/>
         <v>οὕτω</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -11437,7 +11947,7 @@
         <v>646</v>
       </c>
       <c r="B80" t="str">
-        <f>LEFT(A80,IFERROR(FIND(",",A80)-1,LEN(A80)))</f>
+        <f t="shared" si="1"/>
         <v>ἰδού</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -11455,7 +11965,7 @@
         <v>840</v>
       </c>
       <c r="B81" t="str">
-        <f>LEFT(A81,IFERROR(FIND(",",A81)-1,LEN(A81)))</f>
+        <f t="shared" si="1"/>
         <v>Ἰουδαῖος</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -11473,7 +11983,7 @@
         <v>307</v>
       </c>
       <c r="B82" t="str">
-        <f>LEFT(A82,IFERROR(FIND(",",A82)-1,LEN(A82)))</f>
+        <f t="shared" si="1"/>
         <v>εἰσέρχομαι</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -11491,7 +12001,7 @@
         <v>845</v>
       </c>
       <c r="B83" t="str">
-        <f>LEFT(A83,IFERROR(FIND(",",A83)-1,LEN(A83)))</f>
+        <f t="shared" si="1"/>
         <v>νόμος</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -11509,7 +12019,7 @@
         <v>198</v>
       </c>
       <c r="B84" t="str">
-        <f>LEFT(A84,IFERROR(FIND(",",A84)-1,LEN(A84)))</f>
+        <f t="shared" si="1"/>
         <v>παρά</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -11527,7 +12037,7 @@
         <v>70</v>
       </c>
       <c r="B85" t="str">
-        <f>LEFT(A85,IFERROR(FIND(",",A85)-1,LEN(A85)))</f>
+        <f t="shared" si="1"/>
         <v>γράφω</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -11545,7 +12055,7 @@
         <v>852</v>
       </c>
       <c r="B86" t="str">
-        <f>LEFT(A86,IFERROR(FIND(",",A86)-1,LEN(A86)))</f>
+        <f t="shared" si="1"/>
         <v>κόσμος</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -11563,7 +12073,7 @@
         <v>119</v>
       </c>
       <c r="B87" t="str">
-        <f>LEFT(A87,IFERROR(FIND(",",A87)-1,LEN(A87)))</f>
+        <f t="shared" si="1"/>
         <v>καθώς</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -11581,7 +12091,7 @@
         <v>30</v>
       </c>
       <c r="B88" t="str">
-        <f>LEFT(A88,IFERROR(FIND(",",A88)-1,LEN(A88)))</f>
+        <f t="shared" si="1"/>
         <v>μέν</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -11599,7 +12109,7 @@
         <v>413</v>
       </c>
       <c r="B89" t="str">
-        <f>LEFT(A89,IFERROR(FIND(",",A89)-1,LEN(A89)))</f>
+        <f t="shared" si="1"/>
         <v>χείρ</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -11617,7 +12127,7 @@
         <v>315</v>
       </c>
       <c r="B90" t="str">
-        <f>LEFT(A90,IFERROR(FIND(",",A90)-1,LEN(A90)))</f>
+        <f t="shared" si="1"/>
         <v>εὑρίσκω</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -11635,7 +12145,7 @@
         <v>861</v>
       </c>
       <c r="B91" t="str">
-        <f>LEFT(A91,IFERROR(FIND(",",A91)-1,LEN(A91)))</f>
+        <f t="shared" si="1"/>
         <v>ἄγγελος</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -11653,7 +12163,7 @@
         <v>863</v>
       </c>
       <c r="B92" t="str">
-        <f>LEFT(A92,IFERROR(FIND(",",A92)-1,LEN(A92)))</f>
+        <f t="shared" si="1"/>
         <v>ὄχλος</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -11671,7 +12181,7 @@
         <v>866</v>
       </c>
       <c r="B93" t="str">
-        <f>LEFT(A93,IFERROR(FIND(",",A93)-1,LEN(A93)))</f>
+        <f t="shared" si="1"/>
         <v>ἁμαρτία</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -11689,7 +12199,7 @@
         <v>869</v>
       </c>
       <c r="B94" t="str">
-        <f>LEFT(A94,IFERROR(FIND(",",A94)-1,LEN(A94)))</f>
+        <f t="shared" si="1"/>
         <v>ἔργον</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -11707,7 +12217,7 @@
         <v>599</v>
       </c>
       <c r="B95" t="str">
-        <f>LEFT(A95,IFERROR(FIND(",",A95)-1,LEN(A95)))</f>
+        <f t="shared" si="1"/>
         <v>ἄν</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -11725,7 +12235,7 @@
         <v>874</v>
       </c>
       <c r="B96" t="str">
-        <f>LEFT(A96,IFERROR(FIND(",",A96)-1,LEN(A96)))</f>
+        <f t="shared" si="1"/>
         <v>δόξα</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -11743,7 +12253,7 @@
         <v>877</v>
       </c>
       <c r="B97" t="str">
-        <f>LEFT(A97,IFERROR(FIND(",",A97)-1,LEN(A97)))</f>
+        <f t="shared" si="1"/>
         <v>βασιλεία</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -11761,7 +12271,7 @@
         <v>377</v>
       </c>
       <c r="B98" t="str">
-        <f>LEFT(A98,IFERROR(FIND(",",A98)-1,LEN(A98)))</f>
+        <f t="shared" si="1"/>
         <v>ἔθνος</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -11779,7 +12289,7 @@
         <v>371</v>
       </c>
       <c r="B99" t="str">
-        <f>LEFT(A99,IFERROR(FIND(",",A99)-1,LEN(A99)))</f>
+        <f t="shared" si="1"/>
         <v>πόλις</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -11797,7 +12307,7 @@
         <v>471</v>
       </c>
       <c r="B100" t="str">
-        <f>LEFT(A100,IFERROR(FIND(",",A100)-1,LEN(A100)))</f>
+        <f t="shared" si="1"/>
         <v>τότε</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -11815,7 +12325,7 @@
         <v>311</v>
       </c>
       <c r="B101" t="str">
-        <f>LEFT(A101,IFERROR(FIND(",",A101)-1,LEN(A101)))</f>
+        <f t="shared" si="1"/>
         <v>ἐσθίω</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -11833,7 +12343,7 @@
         <v>887</v>
       </c>
       <c r="B102" t="str">
-        <f>LEFT(A102,IFERROR(FIND(",",A102)-1,LEN(A102)))</f>
+        <f t="shared" si="1"/>
         <v>Παῦλος</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -11851,7 +12361,7 @@
         <v>890</v>
       </c>
       <c r="B103" t="str">
-        <f>LEFT(A103,IFERROR(FIND(",",A103)-1,LEN(A103)))</f>
+        <f t="shared" si="1"/>
         <v>καρδία</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -11869,7 +12379,7 @@
         <v>893</v>
       </c>
       <c r="B104" t="str">
-        <f>LEFT(A104,IFERROR(FIND(",",A104)-1,LEN(A104)))</f>
+        <f t="shared" si="1"/>
         <v>Πέτρος</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -11887,7 +12397,7 @@
         <v>419</v>
       </c>
       <c r="B105" t="str">
-        <f>LEFT(A105,IFERROR(FIND(",",A105)-1,LEN(A105)))</f>
+        <f t="shared" si="1"/>
         <v>ἄλλος</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -11905,7 +12415,7 @@
         <v>658</v>
       </c>
       <c r="B106" t="str">
-        <f>LEFT(A106,IFERROR(FIND(",",A106)-1,LEN(A106)))</f>
+        <f t="shared" si="1"/>
         <v>ἵστημι</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -11923,7 +12433,7 @@
         <v>898</v>
       </c>
       <c r="B107" t="str">
-        <f>LEFT(A107,IFERROR(FIND(",",A107)-1,LEN(A107)))</f>
+        <f t="shared" si="1"/>
         <v>πρῶτος</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -11941,7 +12451,7 @@
         <v>375</v>
       </c>
       <c r="B108" t="str">
-        <f>LEFT(A108,IFERROR(FIND(",",A108)-1,LEN(A108)))</f>
+        <f t="shared" si="1"/>
         <v>χάρις</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -11959,7 +12469,7 @@
         <v>88</v>
       </c>
       <c r="B109" t="str">
-        <f>LEFT(A109,IFERROR(FIND(",",A109)-1,LEN(A109)))</f>
+        <f t="shared" si="1"/>
         <v>πορεύομαι</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -11977,7 +12487,7 @@
         <v>206</v>
       </c>
       <c r="B110" t="str">
-        <f>LEFT(A110,IFERROR(FIND(",",A110)-1,LEN(A110)))</f>
+        <f t="shared" si="1"/>
         <v>ὑπέρ</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -11995,7 +12505,7 @@
         <v>167</v>
       </c>
       <c r="B111" t="str">
-        <f>LEFT(A111,IFERROR(FIND(",",A111)-1,LEN(A111)))</f>
+        <f t="shared" si="1"/>
         <v>καλέω</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -12013,7 +12523,7 @@
         <v>438</v>
       </c>
       <c r="B112" t="str">
-        <f>LEFT(A112,IFERROR(FIND(",",A112)-1,LEN(A112)))</f>
+        <f t="shared" si="1"/>
         <v>νῦν</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -12031,7 +12541,7 @@
         <v>373</v>
       </c>
       <c r="B113" t="str">
-        <f>LEFT(A113,IFERROR(FIND(",",A113)-1,LEN(A113)))</f>
+        <f t="shared" si="1"/>
         <v>σάρξ</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -12049,7 +12559,7 @@
         <v>466</v>
       </c>
       <c r="B114" t="str">
-        <f>LEFT(A114,IFERROR(FIND(",",A114)-1,LEN(A114)))</f>
+        <f t="shared" si="1"/>
         <v>ἕως</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -12067,7 +12577,7 @@
         <v>100</v>
       </c>
       <c r="B115" t="str">
-        <f>LEFT(A115,IFERROR(FIND(",",A115)-1,LEN(A115)))</f>
+        <f t="shared" si="1"/>
         <v>ἐγείρω</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -12085,7 +12595,7 @@
         <v>915</v>
       </c>
       <c r="B116" t="str">
-        <f>LEFT(A116,IFERROR(FIND(",",A116)-1,LEN(A116)))</f>
+        <f t="shared" si="1"/>
         <v>ὅστις</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -12103,7 +12613,7 @@
         <v>918</v>
       </c>
       <c r="B117" t="str">
-        <f>LEFT(A117,IFERROR(FIND(",",A117)-1,LEN(A117)))</f>
+        <f t="shared" si="1"/>
         <v>προφήτης</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -12121,7 +12631,7 @@
         <v>153</v>
       </c>
       <c r="B118" t="str">
-        <f>LEFT(A118,IFERROR(FIND(",",A118)-1,LEN(A118)))</f>
+        <f t="shared" si="1"/>
         <v>ἀγαπάω</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -12139,7 +12649,7 @@
         <v>654</v>
       </c>
       <c r="B119" t="str">
-        <f>LEFT(A119,IFERROR(FIND(",",A119)-1,LEN(A119)))</f>
+        <f t="shared" si="1"/>
         <v>ἀφίημι</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -12157,7 +12667,7 @@
         <v>468</v>
       </c>
       <c r="B120" t="str">
-        <f>LEFT(A120,IFERROR(FIND(",",A120)-1,LEN(A120)))</f>
+        <f t="shared" si="1"/>
         <v>οὐδέ</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -12175,7 +12685,7 @@
         <v>924</v>
       </c>
       <c r="B121" t="str">
-        <f>LEFT(A121,IFERROR(FIND(",",A121)-1,LEN(A121)))</f>
+        <f t="shared" si="1"/>
         <v>λαός</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -12193,7 +12703,7 @@
         <v>926</v>
       </c>
       <c r="B122" t="str">
-        <f>LEFT(A122,IFERROR(FIND(",",A122)-1,LEN(A122)))</f>
+        <f t="shared" si="1"/>
         <v>σῶμα</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -12211,7 +12721,7 @@
         <v>440</v>
       </c>
       <c r="B123" t="str">
-        <f>LEFT(A123,IFERROR(FIND(",",A123)-1,LEN(A123)))</f>
+        <f t="shared" si="1"/>
         <v>πάλιν</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -12229,7 +12739,7 @@
         <v>387</v>
       </c>
       <c r="B124" t="str">
-        <f>LEFT(A124,IFERROR(FIND(",",A124)-1,LEN(A124)))</f>
+        <f t="shared" si="1"/>
         <v>ζάω</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -12247,7 +12757,7 @@
         <v>933</v>
       </c>
       <c r="B125" t="str">
-        <f>LEFT(A125,IFERROR(FIND(",",A125)-1,LEN(A125)))</f>
+        <f t="shared" si="1"/>
         <v>φωνή</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -12265,7 +12775,7 @@
         <v>479</v>
       </c>
       <c r="B126" t="str">
-        <f>LEFT(A126,IFERROR(FIND(",",A126)-1,LEN(A126)))</f>
+        <f t="shared" si="1"/>
         <v>δύο</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -12283,7 +12793,7 @@
         <v>937</v>
       </c>
       <c r="B127" t="str">
-        <f>LEFT(A127,IFERROR(FIND(",",A127)-1,LEN(A127)))</f>
+        <f t="shared" si="1"/>
         <v>ζωή</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -12301,7 +12811,7 @@
         <v>939</v>
       </c>
       <c r="B128" t="str">
-        <f>LEFT(A128,IFERROR(FIND(",",A128)-1,LEN(A128)))</f>
+        <f t="shared" si="1"/>
         <v>Ἰωάννης</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -12319,7 +12829,7 @@
         <v>942</v>
       </c>
       <c r="B129" t="str">
-        <f>LEFT(A129,IFERROR(FIND(",",A129)-1,LEN(A129)))</f>
+        <f t="shared" si="1"/>
         <v>ἀποστέλλω</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -12337,7 +12847,7 @@
         <v>96</v>
       </c>
       <c r="B130" t="str">
-        <f>LEFT(A130,IFERROR(FIND(",",A130)-1,LEN(A130)))</f>
+        <f t="shared" ref="B130:B193" si="2">LEFT(A130,IFERROR(FIND(",",A130)-1,LEN(A130)))</f>
         <v>βλέπω</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -12355,7 +12865,7 @@
         <v>462</v>
       </c>
       <c r="B131" t="str">
-        <f>LEFT(A131,IFERROR(FIND(",",A131)-1,LEN(A131)))</f>
+        <f t="shared" si="2"/>
         <v>ἀμήν</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -12373,7 +12883,7 @@
         <v>428</v>
       </c>
       <c r="B132" t="str">
-        <f>LEFT(A132,IFERROR(FIND(",",A132)-1,LEN(A132)))</f>
+        <f t="shared" si="2"/>
         <v>νεκρός</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -12391,7 +12901,7 @@
         <v>204</v>
       </c>
       <c r="B133" t="str">
-        <f>LEFT(A133,IFERROR(FIND(",",A133)-1,LEN(A133)))</f>
+        <f t="shared" si="2"/>
         <v>σύν</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -12409,7 +12919,7 @@
         <v>952</v>
       </c>
       <c r="B134" t="str">
-        <f>LEFT(A134,IFERROR(FIND(",",A134)-1,LEN(A134)))</f>
+        <f t="shared" si="2"/>
         <v>δοῦλος</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -12427,7 +12937,7 @@
         <v>613</v>
       </c>
       <c r="B135" t="str">
-        <f>LEFT(A135,IFERROR(FIND(",",A135)-1,LEN(A135)))</f>
+        <f t="shared" si="2"/>
         <v>ὅταν</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -12445,7 +12955,7 @@
         <v>355</v>
       </c>
       <c r="B136" t="str">
-        <f>LEFT(A136,IFERROR(FIND(",",A136)-1,LEN(A136)))</f>
+        <f t="shared" si="2"/>
         <v>αἰών</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -12463,7 +12973,7 @@
         <v>359</v>
       </c>
       <c r="B137" t="str">
-        <f>LEFT(A137,IFERROR(FIND(",",A137)-1,LEN(A137)))</f>
+        <f t="shared" si="2"/>
         <v>ἀρχιερεύς</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -12481,7 +12991,7 @@
         <v>958</v>
       </c>
       <c r="B138" t="str">
-        <f>LEFT(A138,IFERROR(FIND(",",A138)-1,LEN(A138)))</f>
+        <f t="shared" si="2"/>
         <v>βάλλω</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -12499,7 +13009,7 @@
         <v>961</v>
       </c>
       <c r="B139" t="str">
-        <f>LEFT(A139,IFERROR(FIND(",",A139)-1,LEN(A139)))</f>
+        <f t="shared" si="2"/>
         <v>θάνατος</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -12517,7 +13027,7 @@
         <v>399</v>
       </c>
       <c r="B140" t="str">
-        <f>LEFT(A140,IFERROR(FIND(",",A140)-1,LEN(A140)))</f>
+        <f t="shared" si="2"/>
         <v>δύναμις</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -12535,7 +13045,7 @@
         <v>660</v>
       </c>
       <c r="B141" t="str">
-        <f>LEFT(A141,IFERROR(FIND(",",A141)-1,LEN(A141)))</f>
+        <f t="shared" si="2"/>
         <v>παραδίδωμι</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -12553,7 +13063,7 @@
         <v>104</v>
       </c>
       <c r="B142" t="str">
-        <f>LEFT(A142,IFERROR(FIND(",",A142)-1,LEN(A142)))</f>
+        <f t="shared" si="2"/>
         <v>μένω</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -12571,7 +13081,7 @@
         <v>303</v>
       </c>
       <c r="B143" t="str">
-        <f>LEFT(A143,IFERROR(FIND(",",A143)-1,LEN(A143)))</f>
+        <f t="shared" si="2"/>
         <v>ἀπέρχομαι</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -12589,7 +13099,7 @@
         <v>165</v>
       </c>
       <c r="B144" t="str">
-        <f>LEFT(A144,IFERROR(FIND(",",A144)-1,LEN(A144)))</f>
+        <f t="shared" si="2"/>
         <v>ζητέω</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -12607,7 +13117,7 @@
         <v>971</v>
       </c>
       <c r="B145" t="str">
-        <f>LEFT(A145,IFERROR(FIND(",",A145)-1,LEN(A145)))</f>
+        <f t="shared" si="2"/>
         <v>ἀγάπη</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -12625,7 +13135,7 @@
         <v>361</v>
       </c>
       <c r="B146" t="str">
-        <f>LEFT(A146,IFERROR(FIND(",",A146)-1,LEN(A146)))</f>
+        <f t="shared" si="2"/>
         <v>βασιλεύς</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -12643,7 +13153,7 @@
         <v>974</v>
       </c>
       <c r="B147" t="str">
-        <f>LEFT(A147,IFERROR(FIND(",",A147)-1,LEN(A147)))</f>
+        <f t="shared" si="2"/>
         <v>ἐκκλησία</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -12661,7 +13171,7 @@
         <v>552</v>
       </c>
       <c r="B148" t="str">
-        <f>LEFT(A148,IFERROR(FIND(",",A148)-1,LEN(A148)))</f>
+        <f t="shared" si="2"/>
         <v>ἴδιος</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -12679,7 +13189,7 @@
         <v>102</v>
       </c>
       <c r="B149" t="str">
-        <f>LEFT(A149,IFERROR(FIND(",",A149)-1,LEN(A149)))</f>
+        <f t="shared" si="2"/>
         <v>κρίνω</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -12697,7 +13207,7 @@
         <v>514</v>
       </c>
       <c r="B150" t="str">
-        <f>LEFT(A150,IFERROR(FIND(",",A150)-1,LEN(A150)))</f>
+        <f t="shared" si="2"/>
         <v>μόνος</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -12715,7 +13225,7 @@
         <v>983</v>
       </c>
       <c r="B151" t="str">
-        <f>LEFT(A151,IFERROR(FIND(",",A151)-1,LEN(A151)))</f>
+        <f t="shared" si="2"/>
         <v>οἶκος</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -12733,7 +13243,7 @@
         <v>304</v>
       </c>
       <c r="B152" t="str">
-        <f>LEFT(A152,IFERROR(FIND(",",A152)-1,LEN(A152)))</f>
+        <f t="shared" si="2"/>
         <v>ἀποθνῄσκω</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -12751,7 +13261,7 @@
         <v>556</v>
       </c>
       <c r="B153" t="str">
-        <f>LEFT(A153,IFERROR(FIND(",",A153)-1,LEN(A153)))</f>
+        <f t="shared" si="2"/>
         <v>ὅσος</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -12769,7 +13279,7 @@
         <v>989</v>
       </c>
       <c r="B154" t="str">
-        <f>LEFT(A154,IFERROR(FIND(",",A154)-1,LEN(A154)))</f>
+        <f t="shared" si="2"/>
         <v>ἀλήθεια</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -12787,7 +13297,7 @@
         <v>574</v>
       </c>
       <c r="B155" t="str">
-        <f>LEFT(A155,IFERROR(FIND(",",A155)-1,LEN(A155)))</f>
+        <f t="shared" si="2"/>
         <v>μέλλω</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -12805,7 +13315,7 @@
         <v>516</v>
       </c>
       <c r="B156" t="str">
-        <f>LEFT(A156,IFERROR(FIND(",",A156)-1,LEN(A156)))</f>
+        <f t="shared" si="2"/>
         <v>ὅλος</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -12823,7 +13333,7 @@
         <v>173</v>
       </c>
       <c r="B157" t="str">
-        <f>LEFT(A157,IFERROR(FIND(",",A157)-1,LEN(A157)))</f>
+        <f t="shared" si="2"/>
         <v>παρακαλέω</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -12841,7 +13351,7 @@
         <v>648</v>
       </c>
       <c r="B158" t="str">
-        <f>LEFT(A158,IFERROR(FIND(",",A158)-1,LEN(A158)))</f>
+        <f t="shared" si="2"/>
         <v>ἀνίστημι</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -12859,7 +13369,7 @@
         <v>249</v>
       </c>
       <c r="B159" t="str">
-        <f>LEFT(A159,IFERROR(FIND(",",A159)-1,LEN(A159)))</f>
+        <f t="shared" si="2"/>
         <v>σῴζω</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -12877,7 +13387,7 @@
         <v>1002</v>
       </c>
       <c r="B160" t="str">
-        <f>LEFT(A160,IFERROR(FIND(",",A160)-1,LEN(A160)))</f>
+        <f t="shared" si="2"/>
         <v>ὥρα</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -12895,7 +13405,7 @@
         <v>615</v>
       </c>
       <c r="B161" t="str">
-        <f>LEFT(A161,IFERROR(FIND(",",A161)-1,LEN(A161)))</f>
+        <f t="shared" si="2"/>
         <v>ὅτε</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -12913,7 +13423,7 @@
         <v>560</v>
       </c>
       <c r="B162" t="str">
-        <f>LEFT(A162,IFERROR(FIND(",",A162)-1,LEN(A162)))</f>
+        <f t="shared" si="2"/>
         <v>πῶς</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -12931,7 +13441,7 @@
         <v>1009</v>
       </c>
       <c r="B163" t="str">
-        <f>LEFT(A163,IFERROR(FIND(",",A163)-1,LEN(A163)))</f>
+        <f t="shared" si="2"/>
         <v>ψυχή</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -12949,7 +13459,7 @@
         <v>415</v>
       </c>
       <c r="B164" t="str">
-        <f>LEFT(A164,IFERROR(FIND(",",A164)-1,LEN(A164)))</f>
+        <f t="shared" si="2"/>
         <v>ἀγαθός</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -12967,7 +13477,7 @@
         <v>1014</v>
       </c>
       <c r="B165" t="str">
-        <f>LEFT(A165,IFERROR(FIND(",",A165)-1,LEN(A165)))</f>
+        <f t="shared" si="2"/>
         <v>ἐξουσία</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -12985,7 +13495,7 @@
         <v>328</v>
       </c>
       <c r="B166" t="str">
-        <f>LEFT(A166,IFERROR(FIND(",",A166)-1,LEN(A166)))</f>
+        <f t="shared" si="2"/>
         <v>αἴρω</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -13003,7 +13513,7 @@
         <v>566</v>
       </c>
       <c r="B167" t="str">
-        <f>LEFT(A167,IFERROR(FIND(",",A167)-1,LEN(A167)))</f>
+        <f t="shared" si="2"/>
         <v>δεῖ</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -13021,7 +13531,7 @@
         <v>1020</v>
       </c>
       <c r="B168" t="str">
-        <f>LEFT(A168,IFERROR(FIND(",",A168)-1,LEN(A168)))</f>
+        <f t="shared" si="2"/>
         <v>ὁδός</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -13039,7 +13549,7 @@
         <v>1023</v>
       </c>
       <c r="B169" t="str">
-        <f>LEFT(A169,IFERROR(FIND(",",A169)-1,LEN(A169)))</f>
+        <f t="shared" si="2"/>
         <v>ἀλλήλων</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -13057,7 +13567,7 @@
         <v>424</v>
       </c>
       <c r="B170" t="str">
-        <f>LEFT(A170,IFERROR(FIND(",",A170)-1,LEN(A170)))</f>
+        <f t="shared" si="2"/>
         <v>καλός</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -13075,7 +13585,7 @@
         <v>1028</v>
       </c>
       <c r="B171" t="str">
-        <f>LEFT(A171,IFERROR(FIND(",",A171)-1,LEN(A171)))</f>
+        <f t="shared" si="2"/>
         <v>ὀφθαλμός</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -13093,7 +13603,7 @@
         <v>662</v>
       </c>
       <c r="B172" t="str">
-        <f>LEFT(A172,IFERROR(FIND(",",A172)-1,LEN(A172)))</f>
+        <f t="shared" si="2"/>
         <v>τίθημι</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -13111,7 +13621,7 @@
         <v>423</v>
       </c>
       <c r="B173" t="str">
-        <f>LEFT(A173,IFERROR(FIND(",",A173)-1,LEN(A173)))</f>
+        <f t="shared" si="2"/>
         <v>ἕτερος</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -13129,7 +13639,7 @@
         <v>1033</v>
       </c>
       <c r="B174" t="str">
-        <f>LEFT(A174,IFERROR(FIND(",",A174)-1,LEN(A174)))</f>
+        <f t="shared" si="2"/>
         <v>τέκνον</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -13147,7 +13657,7 @@
         <v>1036</v>
       </c>
       <c r="B175" t="str">
-        <f>LEFT(A175,IFERROR(FIND(",",A175)-1,LEN(A175)))</f>
+        <f t="shared" si="2"/>
         <v>Φαρισαῖος</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -13165,7 +13675,7 @@
         <v>1039</v>
       </c>
       <c r="B176" t="str">
-        <f>LEFT(A176,IFERROR(FIND(",",A176)-1,LEN(A176)))</f>
+        <f t="shared" si="2"/>
         <v>αἷμα</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -13183,7 +13693,7 @@
         <v>1042</v>
       </c>
       <c r="B177" t="str">
-        <f>LEFT(A177,IFERROR(FIND(",",A177)-1,LEN(A177)))</f>
+        <f t="shared" si="2"/>
         <v>ἄρτος</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -13201,7 +13711,7 @@
         <v>155</v>
       </c>
       <c r="B178" t="str">
-        <f>LEFT(A178,IFERROR(FIND(",",A178)-1,LEN(A178)))</f>
+        <f t="shared" si="2"/>
         <v>γεννάω</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -13219,7 +13729,7 @@
         <v>98</v>
       </c>
       <c r="B179" t="str">
-        <f>LEFT(A179,IFERROR(FIND(",",A179)-1,LEN(A179)))</f>
+        <f t="shared" si="2"/>
         <v>διδάσκω</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -13237,7 +13747,7 @@
         <v>139</v>
       </c>
       <c r="B180" t="str">
-        <f>LEFT(A180,IFERROR(FIND(",",A180)-1,LEN(A180)))</f>
+        <f t="shared" si="2"/>
         <v>ἐκεῖ</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -13255,7 +13765,7 @@
         <v>175</v>
       </c>
       <c r="B181" t="str">
-        <f>LEFT(A181,IFERROR(FIND(",",A181)-1,LEN(A181)))</f>
+        <f t="shared" si="2"/>
         <v>περιπατέω</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -13273,7 +13783,7 @@
         <v>1051</v>
       </c>
       <c r="B182" t="str">
-        <f>LEFT(A182,IFERROR(FIND(",",A182)-1,LEN(A182)))</f>
+        <f t="shared" si="2"/>
         <v>φοβέω</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -13291,7 +13801,7 @@
         <v>210</v>
       </c>
       <c r="B183" t="str">
-        <f>LEFT(A183,IFERROR(FIND(",",A183)-1,LEN(A183)))</f>
+        <f t="shared" si="2"/>
         <v>ἐνώπιον</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -13309,7 +13819,7 @@
         <v>1056</v>
       </c>
       <c r="B184" t="str">
-        <f>LEFT(A184,IFERROR(FIND(",",A184)-1,LEN(A184)))</f>
+        <f t="shared" si="2"/>
         <v>τόπος</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -13327,7 +13837,7 @@
         <v>265</v>
       </c>
       <c r="B185" t="str">
-        <f>LEFT(A185,IFERROR(FIND(",",A185)-1,LEN(A185)))</f>
+        <f t="shared" si="2"/>
         <v>ἔτι</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -13345,7 +13855,7 @@
         <v>1061</v>
       </c>
       <c r="B186" t="str">
-        <f>LEFT(A186,IFERROR(FIND(",",A186)-1,LEN(A186)))</f>
+        <f t="shared" si="2"/>
         <v>οἰκία</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -13363,7 +13873,7 @@
         <v>401</v>
       </c>
       <c r="B187" t="str">
-        <f>LEFT(A187,IFERROR(FIND(",",A187)-1,LEN(A187)))</f>
+        <f t="shared" si="2"/>
         <v>πούς</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -13381,7 +13891,7 @@
         <v>1065</v>
       </c>
       <c r="B188" t="str">
-        <f>LEFT(A188,IFERROR(FIND(",",A188)-1,LEN(A188)))</f>
+        <f t="shared" si="2"/>
         <v>δικαιοσύνη</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -13399,7 +13909,7 @@
         <v>1067</v>
       </c>
       <c r="B189" t="str">
-        <f>LEFT(A189,IFERROR(FIND(",",A189)-1,LEN(A189)))</f>
+        <f t="shared" si="2"/>
         <v>εἰρήνη</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -13417,7 +13927,7 @@
         <v>1069</v>
       </c>
       <c r="B190" t="str">
-        <f>LEFT(A190,IFERROR(FIND(",",A190)-1,LEN(A190)))</f>
+        <f t="shared" si="2"/>
         <v>θάλασσα</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -13435,7 +13945,7 @@
         <v>448</v>
       </c>
       <c r="B191" t="str">
-        <f>LEFT(A191,IFERROR(FIND(",",A191)-1,LEN(A191)))</f>
+        <f t="shared" si="2"/>
         <v>κάθημαι</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -13453,7 +13963,7 @@
         <v>163</v>
       </c>
       <c r="B192" t="str">
-        <f>LEFT(A192,IFERROR(FIND(",",A192)-1,LEN(A192)))</f>
+        <f t="shared" si="2"/>
         <v>ἀκολουθέω</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -13471,7 +13981,7 @@
         <v>652</v>
       </c>
       <c r="B193" t="str">
-        <f>LEFT(A193,IFERROR(FIND(",",A193)-1,LEN(A193)))</f>
+        <f t="shared" si="2"/>
         <v>ἀπόλλυμι</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -13489,7 +13999,7 @@
         <v>1078</v>
       </c>
       <c r="B194" t="str">
-        <f>LEFT(A194,IFERROR(FIND(",",A194)-1,LEN(A194)))</f>
+        <f t="shared" ref="B194:B257" si="3">LEFT(A194,IFERROR(FIND(",",A194)-1,LEN(A194)))</f>
         <v>μηδείς</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -13507,7 +14017,7 @@
         <v>1081</v>
       </c>
       <c r="B195" t="str">
-        <f>LEFT(A195,IFERROR(FIND(",",A195)-1,LEN(A195)))</f>
+        <f t="shared" si="3"/>
         <v>πίπτω</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -13525,7 +14035,7 @@
         <v>487</v>
       </c>
       <c r="B196" t="str">
-        <f>LEFT(A196,IFERROR(FIND(",",A196)-1,LEN(A196)))</f>
+        <f t="shared" si="3"/>
         <v>ἑπτά</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -13543,7 +14053,7 @@
         <v>470</v>
       </c>
       <c r="B197" t="str">
-        <f>LEFT(A197,IFERROR(FIND(",",A197)-1,LEN(A197)))</f>
+        <f t="shared" si="3"/>
         <v>οὔτε</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -13561,7 +14071,7 @@
         <v>275</v>
       </c>
       <c r="B198" t="str">
-        <f>LEFT(A198,IFERROR(FIND(",",A198)-1,LEN(A198)))</f>
+        <f t="shared" si="3"/>
         <v>ἄρχω</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -13579,7 +14089,7 @@
         <v>180</v>
       </c>
       <c r="B199" t="str">
-        <f>LEFT(A199,IFERROR(FIND(",",A199)-1,LEN(A199)))</f>
+        <f t="shared" si="3"/>
         <v>πληρόω</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -13597,7 +14107,7 @@
         <v>322</v>
       </c>
       <c r="B200" t="str">
-        <f>LEFT(A200,IFERROR(FIND(",",A200)-1,LEN(A200)))</f>
+        <f t="shared" si="3"/>
         <v>προσέρχομαι</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -13615,7 +14125,7 @@
         <v>1094</v>
       </c>
       <c r="B201" t="str">
-        <f>LEFT(A201,IFERROR(FIND(",",A201)-1,LEN(A201)))</f>
+        <f t="shared" si="3"/>
         <v>καιρός</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -13633,7 +14143,7 @@
         <v>277</v>
       </c>
       <c r="B202" t="str">
-        <f>LEFT(A202,IFERROR(FIND(",",A202)-1,LEN(A202)))</f>
+        <f t="shared" si="3"/>
         <v>προσεύχομαι</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -13651,7 +14161,7 @@
         <v>1098</v>
       </c>
       <c r="B203" t="str">
-        <f>LEFT(A203,IFERROR(FIND(",",A203)-1,LEN(A203)))</f>
+        <f t="shared" si="3"/>
         <v>κἀγώ</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -13669,7 +14179,7 @@
         <v>1101</v>
       </c>
       <c r="B204" t="str">
-        <f>LEFT(A204,IFERROR(FIND(",",A204)-1,LEN(A204)))</f>
+        <f t="shared" si="3"/>
         <v>μήτηρ</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -13687,7 +14197,7 @@
         <v>589</v>
       </c>
       <c r="B205" t="str">
-        <f>LEFT(A205,IFERROR(FIND(",",A205)-1,LEN(A205)))</f>
+        <f t="shared" si="3"/>
         <v>ὥστε</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -13705,7 +14215,7 @@
         <v>301</v>
       </c>
       <c r="B206" t="str">
-        <f>LEFT(A206,IFERROR(FIND(",",A206)-1,LEN(A206)))</f>
+        <f t="shared" si="3"/>
         <v>ἀναβαίνω</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -13723,7 +14233,7 @@
         <v>456</v>
       </c>
       <c r="B207" t="str">
-        <f>LEFT(A207,IFERROR(FIND(",",A207)-1,LEN(A207)))</f>
+        <f t="shared" si="3"/>
         <v>ἕκαστος</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -13741,7 +14251,7 @@
         <v>607</v>
       </c>
       <c r="B208" t="str">
-        <f>LEFT(A208,IFERROR(FIND(",",A208)-1,LEN(A208)))</f>
+        <f t="shared" si="3"/>
         <v>ὅπου</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -13759,7 +14269,7 @@
         <v>309</v>
       </c>
       <c r="B209" t="str">
-        <f>LEFT(A209,IFERROR(FIND(",",A209)-1,LEN(A209)))</f>
+        <f t="shared" si="3"/>
         <v>ἐκβάλλω</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -13777,7 +14287,7 @@
         <v>317</v>
       </c>
       <c r="B210" t="str">
-        <f>LEFT(A210,IFERROR(FIND(",",A210)-1,LEN(A210)))</f>
+        <f t="shared" si="3"/>
         <v>καταβαίνω</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -13795,7 +14305,7 @@
         <v>267</v>
       </c>
       <c r="B211" t="str">
-        <f>LEFT(A211,IFERROR(FIND(",",A211)-1,LEN(A211)))</f>
+        <f t="shared" si="3"/>
         <v>μᾶλλον</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -13813,7 +14323,7 @@
         <v>1115</v>
       </c>
       <c r="B212" t="str">
-        <f>LEFT(A212,IFERROR(FIND(",",A212)-1,LEN(A212)))</f>
+        <f t="shared" si="3"/>
         <v>ἀπόστολος</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -13831,7 +14341,7 @@
         <v>1117</v>
       </c>
       <c r="B213" t="str">
-        <f>LEFT(A213,IFERROR(FIND(",",A213)-1,LEN(A213)))</f>
+        <f t="shared" si="3"/>
         <v>Μωϋσῆς</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -13849,7 +14359,7 @@
         <v>421</v>
       </c>
       <c r="B214" t="str">
-        <f>LEFT(A214,IFERROR(FIND(",",A214)-1,LEN(A214)))</f>
+        <f t="shared" si="3"/>
         <v>δίκαιος</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -13867,7 +14377,7 @@
         <v>245</v>
       </c>
       <c r="B215" t="str">
-        <f>LEFT(A215,IFERROR(FIND(",",A215)-1,LEN(A215)))</f>
+        <f t="shared" si="3"/>
         <v>πέμπω</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -13885,7 +14395,7 @@
         <v>106</v>
       </c>
       <c r="B216" t="str">
-        <f>LEFT(A216,IFERROR(FIND(",",A216)-1,LEN(A216)))</f>
+        <f t="shared" si="3"/>
         <v>ὑπάγω</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -13903,7 +14413,7 @@
         <v>436</v>
       </c>
       <c r="B217" t="str">
-        <f>LEFT(A217,IFERROR(FIND(",",A217)-1,LEN(A217)))</f>
+        <f t="shared" si="3"/>
         <v>πονηρός</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -13921,7 +14431,7 @@
         <v>1127</v>
       </c>
       <c r="B218" t="str">
-        <f>LEFT(A218,IFERROR(FIND(",",A218)-1,LEN(A218)))</f>
+        <f t="shared" si="3"/>
         <v>στόμα</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -13939,7 +14449,7 @@
         <v>271</v>
       </c>
       <c r="B219" t="str">
-        <f>LEFT(A219,IFERROR(FIND(",",A219)-1,LEN(A219)))</f>
+        <f t="shared" si="3"/>
         <v>ἀνοίγω</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -13957,7 +14467,7 @@
         <v>123</v>
       </c>
       <c r="B220" t="str">
-        <f>LEFT(A220,IFERROR(FIND(",",A220)-1,LEN(A220)))</f>
+        <f t="shared" si="3"/>
         <v>βαπτίζω</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -13975,7 +14485,7 @@
         <v>1134</v>
       </c>
       <c r="B221" t="str">
-        <f>LEFT(A221,IFERROR(FIND(",",A221)-1,LEN(A221)))</f>
+        <f t="shared" si="3"/>
         <v>Ἱεροσόλυμα</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -13993,7 +14503,7 @@
         <v>1137</v>
       </c>
       <c r="B222" t="str">
-        <f>LEFT(A222,IFERROR(FIND(",",A222)-1,LEN(A222)))</f>
+        <f t="shared" si="3"/>
         <v>σημεῖον</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -14011,7 +14521,7 @@
         <v>548</v>
       </c>
       <c r="B223" t="str">
-        <f>LEFT(A223,IFERROR(FIND(",",A223)-1,LEN(A223)))</f>
+        <f t="shared" si="3"/>
         <v>ἐμός</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -14029,7 +14539,7 @@
         <v>56</v>
       </c>
       <c r="B224" t="str">
-        <f>LEFT(A224,IFERROR(FIND(",",A224)-1,LEN(A224)))</f>
+        <f t="shared" si="3"/>
         <v>εὐαγγέλιον</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -14047,7 +14557,7 @@
         <v>171</v>
       </c>
       <c r="B225" t="str">
-        <f>LEFT(A225,IFERROR(FIND(",",A225)-1,LEN(A225)))</f>
+        <f t="shared" si="3"/>
         <v>μαρτυρέω</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -14065,7 +14575,7 @@
         <v>1144</v>
       </c>
       <c r="B226" t="str">
-        <f>LEFT(A226,IFERROR(FIND(",",A226)-1,LEN(A226)))</f>
+        <f t="shared" si="3"/>
         <v>πρόσωπον</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -14083,7 +14593,7 @@
         <v>1147</v>
       </c>
       <c r="B227" t="str">
-        <f>LEFT(A227,IFERROR(FIND(",",A227)-1,LEN(A227)))</f>
+        <f t="shared" si="3"/>
         <v>ὕδωρ</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -14101,7 +14611,7 @@
         <v>491</v>
       </c>
       <c r="B228" t="str">
-        <f>LEFT(A228,IFERROR(FIND(",",A228)-1,LEN(A228)))</f>
+        <f t="shared" si="3"/>
         <v>δώδεκα</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -14119,7 +14629,7 @@
         <v>1151</v>
       </c>
       <c r="B229" t="str">
-        <f>LEFT(A229,IFERROR(FIND(",",A229)-1,LEN(A229)))</f>
+        <f t="shared" si="3"/>
         <v>κεφαλή</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -14137,7 +14647,7 @@
         <v>1154</v>
       </c>
       <c r="B230" t="str">
-        <f>LEFT(A230,IFERROR(FIND(",",A230)-1,LEN(A230)))</f>
+        <f t="shared" si="3"/>
         <v>Σίμων</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -14155,7 +14665,7 @@
         <v>1157</v>
       </c>
       <c r="B231" t="str">
-        <f>LEFT(A231,IFERROR(FIND(",",A231)-1,LEN(A231)))</f>
+        <f t="shared" si="3"/>
         <v>ἀποκτείνω</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -14173,7 +14683,7 @@
         <v>628</v>
       </c>
       <c r="B232" t="str">
-        <f>LEFT(A232,IFERROR(FIND(",",A232)-1,LEN(A232)))</f>
+        <f t="shared" si="3"/>
         <v>χαίρω</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -14191,7 +14701,7 @@
         <v>1161</v>
       </c>
       <c r="B233" t="str">
-        <f>LEFT(A233,IFERROR(FIND(",",A233)-1,LEN(A233)))</f>
+        <f t="shared" si="3"/>
         <v>Ἀβραάμ</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -14209,7 +14719,7 @@
         <v>319</v>
       </c>
       <c r="B234" t="str">
-        <f>LEFT(A234,IFERROR(FIND(",",A234)-1,LEN(A234)))</f>
+        <f t="shared" si="3"/>
         <v>πίνω</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -14227,7 +14737,7 @@
         <v>411</v>
       </c>
       <c r="B235" t="str">
-        <f>LEFT(A235,IFERROR(FIND(",",A235)-1,LEN(A235)))</f>
+        <f t="shared" si="3"/>
         <v>φῶς</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -14245,7 +14755,7 @@
         <v>1166</v>
       </c>
       <c r="B236" t="str">
-        <f>LEFT(A236,IFERROR(FIND(",",A236)-1,LEN(A236)))</f>
+        <f t="shared" si="3"/>
         <v>αἰώνιος</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -14263,7 +14773,7 @@
         <v>403</v>
       </c>
       <c r="B237" t="str">
-        <f>LEFT(A237,IFERROR(FIND(",",A237)-1,LEN(A237)))</f>
+        <f t="shared" si="3"/>
         <v>πῦρ</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -14281,7 +14791,7 @@
         <v>161</v>
       </c>
       <c r="B238" t="str">
-        <f>LEFT(A238,IFERROR(FIND(",",A238)-1,LEN(A238)))</f>
+        <f t="shared" si="3"/>
         <v>αἰτέω</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -14299,7 +14809,7 @@
         <v>1171</v>
       </c>
       <c r="B239" t="str">
-        <f>LEFT(A239,IFERROR(FIND(",",A239)-1,LEN(A239)))</f>
+        <f t="shared" si="3"/>
         <v>ἱερόν</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -14317,7 +14827,7 @@
         <v>251</v>
       </c>
       <c r="B240" t="str">
-        <f>LEFT(A240,IFERROR(FIND(",",A240)-1,LEN(A240)))</f>
+        <f t="shared" si="3"/>
         <v>τηρέω</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -14335,7 +14845,7 @@
         <v>94</v>
       </c>
       <c r="B241" t="str">
-        <f>LEFT(A241,IFERROR(FIND(",",A241)-1,LEN(A241)))</f>
+        <f t="shared" si="3"/>
         <v>ἄγω</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -14353,7 +14863,7 @@
         <v>1175</v>
       </c>
       <c r="B242" t="str">
-        <f>LEFT(A242,IFERROR(FIND(",",A242)-1,LEN(A242)))</f>
+        <f t="shared" si="3"/>
         <v>Ἰσραήλ</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -14371,7 +14881,7 @@
         <v>1178</v>
       </c>
       <c r="B243" t="str">
-        <f>LEFT(A243,IFERROR(FIND(",",A243)-1,LEN(A243)))</f>
+        <f t="shared" si="3"/>
         <v>ῥῆμα</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -14389,7 +14899,7 @@
         <v>1181</v>
       </c>
       <c r="B244" t="str">
-        <f>LEFT(A244,IFERROR(FIND(",",A244)-1,LEN(A244)))</f>
+        <f t="shared" si="3"/>
         <v>σάββατον</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -14407,7 +14917,7 @@
         <v>1183</v>
       </c>
       <c r="B245" t="str">
-        <f>LEFT(A245,IFERROR(FIND(",",A245)-1,LEN(A245)))</f>
+        <f t="shared" si="3"/>
         <v>τρεῖς</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -14425,7 +14935,7 @@
         <v>1185</v>
       </c>
       <c r="B246" t="str">
-        <f>LEFT(A246,IFERROR(FIND(",",A246)-1,LEN(A246)))</f>
+        <f t="shared" si="3"/>
         <v>ἐντολή</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -14443,7 +14953,7 @@
         <v>432</v>
       </c>
       <c r="B247" t="str">
-        <f>LEFT(A247,IFERROR(FIND(",",A247)-1,LEN(A247)))</f>
+        <f t="shared" si="3"/>
         <v>πιστός</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -14461,7 +14971,7 @@
         <v>1190</v>
       </c>
       <c r="B248" t="str">
-        <f>LEFT(A248,IFERROR(FIND(",",A248)-1,LEN(A248)))</f>
+        <f t="shared" si="3"/>
         <v>πλοῖον</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -14479,7 +14989,7 @@
         <v>273</v>
       </c>
       <c r="B249" t="str">
-        <f>LEFT(A249,IFERROR(FIND(",",A249)-1,LEN(A249)))</f>
+        <f t="shared" si="3"/>
         <v>ἀπολύω</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -14497,7 +15007,7 @@
         <v>1195</v>
       </c>
       <c r="B250" t="str">
-        <f>LEFT(A250,IFERROR(FIND(",",A250)-1,LEN(A250)))</f>
+        <f t="shared" si="3"/>
         <v>καρπός</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -14515,7 +15025,7 @@
         <v>460</v>
       </c>
       <c r="B251" t="str">
-        <f>LEFT(A251,IFERROR(FIND(",",A251)-1,LEN(A251)))</f>
+        <f t="shared" si="3"/>
         <v>πρεσβύτερος</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -14533,7 +15043,7 @@
         <v>324</v>
       </c>
       <c r="B252" t="str">
-        <f>LEFT(A252,IFERROR(FIND(",",A252)-1,LEN(A252)))</f>
+        <f t="shared" si="3"/>
         <v>φέρω</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -14551,7 +15061,7 @@
         <v>664</v>
       </c>
       <c r="B253" t="str">
-        <f>LEFT(A253,IFERROR(FIND(",",A253)-1,LEN(A253)))</f>
+        <f t="shared" si="3"/>
         <v>φημί</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -14569,7 +15079,7 @@
         <v>118</v>
       </c>
       <c r="B254" t="str">
-        <f>LEFT(A254,IFERROR(FIND(",",A254)-1,LEN(A254)))</f>
+        <f t="shared" si="3"/>
         <v>εἴτε</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -14587,7 +15097,7 @@
         <v>1204</v>
       </c>
       <c r="B255" t="str">
-        <f>LEFT(A255,IFERROR(FIND(",",A255)-1,LEN(A255)))</f>
+        <f t="shared" si="3"/>
         <v>γραμματεύς</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -14605,7 +15115,7 @@
         <v>1207</v>
       </c>
       <c r="B256" t="str">
-        <f>LEFT(A256,IFERROR(FIND(",",A256)-1,LEN(A256)))</f>
+        <f t="shared" si="3"/>
         <v>δαιμόνιον</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -14623,7 +15133,7 @@
         <v>464</v>
       </c>
       <c r="B257" t="str">
-        <f>LEFT(A257,IFERROR(FIND(",",A257)-1,LEN(A257)))</f>
+        <f t="shared" si="3"/>
         <v>ἔξω</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -14641,7 +15151,7 @@
         <v>159</v>
       </c>
       <c r="B258" t="str">
-        <f>LEFT(A258,IFERROR(FIND(",",A258)-1,LEN(A258)))</f>
+        <f t="shared" ref="B258:B321" si="4">LEFT(A258,IFERROR(FIND(",",A258)-1,LEN(A258)))</f>
         <v>ἐρωτάω</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -14659,7 +15169,7 @@
         <v>510</v>
       </c>
       <c r="B259" t="str">
-        <f>LEFT(A259,IFERROR(FIND(",",A259)-1,LEN(A259)))</f>
+        <f t="shared" si="4"/>
         <v>ὄρος</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -14677,7 +15187,7 @@
         <v>568</v>
       </c>
       <c r="B260" t="str">
-        <f>LEFT(A260,IFERROR(FIND(",",A260)-1,LEN(A260)))</f>
+        <f t="shared" si="4"/>
         <v>δοκέω</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -14695,7 +15205,7 @@
         <v>1217</v>
       </c>
       <c r="B261" t="str">
-        <f>LEFT(A261,IFERROR(FIND(",",A261)-1,LEN(A261)))</f>
+        <f t="shared" si="4"/>
         <v>θέλημα</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -14713,7 +15223,7 @@
         <v>1219</v>
       </c>
       <c r="B262" t="str">
-        <f>LEFT(A262,IFERROR(FIND(",",A262)-1,LEN(A262)))</f>
+        <f t="shared" si="4"/>
         <v>θρόνος</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -14731,7 +15241,7 @@
         <v>1221</v>
       </c>
       <c r="B263" t="str">
-        <f>LEFT(A263,IFERROR(FIND(",",A263)-1,LEN(A263)))</f>
+        <f t="shared" si="4"/>
         <v>Ἱεροσόλυμα</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -14749,7 +15259,7 @@
         <v>518</v>
       </c>
       <c r="B264" t="str">
-        <f>LEFT(A264,IFERROR(FIND(",",A264)-1,LEN(A264)))</f>
+        <f t="shared" si="4"/>
         <v>ἀγαπητός</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -14767,7 +15277,7 @@
         <v>1225</v>
       </c>
       <c r="B265" t="str">
-        <f>LEFT(A265,IFERROR(FIND(",",A265)-1,LEN(A265)))</f>
+        <f t="shared" si="4"/>
         <v>Γαλιλαία</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -14785,7 +15295,7 @@
         <v>243</v>
       </c>
       <c r="B266" t="str">
-        <f>LEFT(A266,IFERROR(FIND(",",A266)-1,LEN(A266)))</f>
+        <f t="shared" si="4"/>
         <v>δοξάζω</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -14803,7 +15313,7 @@
         <v>528</v>
       </c>
       <c r="B267" t="str">
-        <f>LEFT(A267,IFERROR(FIND(",",A267)-1,LEN(A267)))</f>
+        <f t="shared" si="4"/>
         <v>ἤδη</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -14821,7 +15331,7 @@
         <v>450</v>
       </c>
       <c r="B268" t="str">
-        <f>LEFT(A268,IFERROR(FIND(",",A268)-1,LEN(A268)))</f>
+        <f t="shared" si="4"/>
         <v>κηρύσσω</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -14839,7 +15349,7 @@
         <v>1234</v>
       </c>
       <c r="B269" t="str">
-        <f>LEFT(A269,IFERROR(FIND(",",A269)-1,LEN(A269)))</f>
+        <f t="shared" si="4"/>
         <v>νύξ</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -14857,7 +15367,7 @@
         <v>530</v>
       </c>
       <c r="B270" t="str">
-        <f>LEFT(A270,IFERROR(FIND(",",A270)-1,LEN(A270)))</f>
+        <f t="shared" si="4"/>
         <v>ὧδε</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -14875,7 +15385,7 @@
         <v>1238</v>
       </c>
       <c r="B271" t="str">
-        <f>LEFT(A271,IFERROR(FIND(",",A271)-1,LEN(A271)))</f>
+        <f t="shared" si="4"/>
         <v>ἱμάτιον</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -14893,7 +15403,7 @@
         <v>279</v>
       </c>
       <c r="B272" t="str">
-        <f>LEFT(A272,IFERROR(FIND(",",A272)-1,LEN(A272)))</f>
+        <f t="shared" si="4"/>
         <v>προσκυνέω</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -14911,7 +15421,7 @@
         <v>452</v>
       </c>
       <c r="B273" t="str">
-        <f>LEFT(A273,IFERROR(FIND(",",A273)-1,LEN(A273)))</f>
+        <f t="shared" si="4"/>
         <v>ὑπάρχω</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -14929,7 +15439,7 @@
         <v>619</v>
       </c>
       <c r="B274" t="str">
-        <f>LEFT(A274,IFERROR(FIND(",",A274)-1,LEN(A274)))</f>
+        <f t="shared" si="4"/>
         <v>ἀσπάζομαι</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -14947,7 +15457,7 @@
         <v>1246</v>
       </c>
       <c r="B275" t="str">
-        <f>LEFT(A275,IFERROR(FIND(",",A275)-1,LEN(A275)))</f>
+        <f t="shared" si="4"/>
         <v>Δαυίδ</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -14965,7 +15475,7 @@
         <v>287</v>
       </c>
       <c r="B276" t="str">
-        <f>LEFT(A276,IFERROR(FIND(",",A276)-1,LEN(A276)))</f>
+        <f t="shared" si="4"/>
         <v>διδάσκαλος</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -14983,7 +15493,7 @@
         <v>1250</v>
       </c>
       <c r="B277" t="str">
-        <f>LEFT(A277,IFERROR(FIND(",",A277)-1,LEN(A277)))</f>
+        <f t="shared" si="4"/>
         <v>λίθος</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -15001,7 +15511,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="str">
-        <f>LEFT(A278,IFERROR(FIND(",",A278)-1,LEN(A278)))</f>
+        <f t="shared" si="4"/>
         <v>συνάγω</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -15019,7 +15529,7 @@
         <v>1253</v>
       </c>
       <c r="B279" t="str">
-        <f>LEFT(A279,IFERROR(FIND(",",A279)-1,LEN(A279)))</f>
+        <f t="shared" si="4"/>
         <v>χαρά</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -15037,7 +15547,7 @@
         <v>446</v>
       </c>
       <c r="B280" t="str">
-        <f>LEFT(A280,IFERROR(FIND(",",A280)-1,LEN(A280)))</f>
+        <f t="shared" si="4"/>
         <v>θεωρέω</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -15055,7 +15565,7 @@
         <v>1257</v>
       </c>
       <c r="B281" t="str">
-        <f>LEFT(A281,IFERROR(FIND(",",A281)-1,LEN(A281)))</f>
+        <f t="shared" si="4"/>
         <v>μέσος</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -15073,7 +15583,7 @@
         <v>1260</v>
       </c>
       <c r="B282" t="str">
-        <f>LEFT(A282,IFERROR(FIND(",",A282)-1,LEN(A282)))</f>
+        <f t="shared" si="4"/>
         <v>τοιοῦτος</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -15091,7 +15601,7 @@
         <v>591</v>
       </c>
       <c r="B283" t="str">
-        <f>LEFT(A283,IFERROR(FIND(",",A283)-1,LEN(A283)))</f>
+        <f t="shared" si="4"/>
         <v>δέχομαι</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -15109,7 +15619,7 @@
         <v>157</v>
       </c>
       <c r="B284" t="str">
-        <f>LEFT(A284,IFERROR(FIND(",",A284)-1,LEN(A284)))</f>
+        <f t="shared" si="4"/>
         <v>ἐπερωτάω</v>
       </c>
       <c r="C284" s="2" t="s">
@@ -15127,7 +15637,7 @@
         <v>587</v>
       </c>
       <c r="B285" t="str">
-        <f>LEFT(A285,IFERROR(FIND(",",A285)-1,LEN(A285)))</f>
+        <f t="shared" si="4"/>
         <v>μηδέ</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -15145,7 +15655,7 @@
         <v>1268</v>
       </c>
       <c r="B286" t="str">
-        <f>LEFT(A286,IFERROR(FIND(",",A286)-1,LEN(A286)))</f>
+        <f t="shared" si="4"/>
         <v>συναγωγή</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -15163,7 +15673,7 @@
         <v>497</v>
       </c>
       <c r="B287" t="str">
-        <f>LEFT(A287,IFERROR(FIND(",",A287)-1,LEN(A287)))</f>
+        <f t="shared" si="4"/>
         <v>τρίτος</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -15181,7 +15691,7 @@
         <v>1271</v>
       </c>
       <c r="B288" t="str">
-        <f>LEFT(A288,IFERROR(FIND(",",A288)-1,LEN(A288)))</f>
+        <f t="shared" si="4"/>
         <v>ἀρχή</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -15199,7 +15709,7 @@
         <v>127</v>
       </c>
       <c r="B289" t="str">
-        <f>LEFT(A289,IFERROR(FIND(",",A289)-1,LEN(A289)))</f>
+        <f t="shared" si="4"/>
         <v>κράζω</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -15217,7 +15727,7 @@
         <v>1276</v>
       </c>
       <c r="B290" t="str">
-        <f>LEFT(A290,IFERROR(FIND(",",A290)-1,LEN(A290)))</f>
+        <f t="shared" si="4"/>
         <v>λοιπός</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -15235,7 +15745,7 @@
         <v>1279</v>
       </c>
       <c r="B291" t="str">
-        <f>LEFT(A291,IFERROR(FIND(",",A291)-1,LEN(A291)))</f>
+        <f t="shared" si="4"/>
         <v>Πιλᾶτος</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -15253,7 +15763,7 @@
         <v>524</v>
       </c>
       <c r="B292" t="str">
-        <f>LEFT(A292,IFERROR(FIND(",",A292)-1,LEN(A292)))</f>
+        <f t="shared" si="4"/>
         <v>δεξιός</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -15271,7 +15781,7 @@
         <v>444</v>
       </c>
       <c r="B293" t="str">
-        <f>LEFT(A293,IFERROR(FIND(",",A293)-1,LEN(A293)))</f>
+        <f t="shared" si="4"/>
         <v>εὐαγγελίζω</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -15289,7 +15799,7 @@
         <v>151</v>
       </c>
       <c r="B294" t="str">
-        <f>LEFT(A294,IFERROR(FIND(",",A294)-1,LEN(A294)))</f>
+        <f t="shared" si="4"/>
         <v>οὐχί</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -15307,7 +15817,7 @@
         <v>1288</v>
       </c>
       <c r="B295" t="str">
-        <f>LEFT(A295,IFERROR(FIND(",",A295)-1,LEN(A295)))</f>
+        <f t="shared" si="4"/>
         <v>χρόνος</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -15325,7 +15835,7 @@
         <v>351</v>
       </c>
       <c r="B296" t="str">
-        <f>LEFT(A296,IFERROR(FIND(",",A296)-1,LEN(A296)))</f>
+        <f t="shared" si="4"/>
         <v>διό</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -15343,7 +15853,7 @@
         <v>512</v>
       </c>
       <c r="B297" t="str">
-        <f>LEFT(A297,IFERROR(FIND(",",A297)-1,LEN(A297)))</f>
+        <f t="shared" si="4"/>
         <v>ἐλπίς</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -15361,7 +15871,7 @@
         <v>609</v>
       </c>
       <c r="B298" t="str">
-        <f>LEFT(A298,IFERROR(FIND(",",A298)-1,LEN(A298)))</f>
+        <f t="shared" si="4"/>
         <v>ὅπως</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -15379,7 +15889,7 @@
         <v>1294</v>
       </c>
       <c r="B299" t="str">
-        <f>LEFT(A299,IFERROR(FIND(",",A299)-1,LEN(A299)))</f>
+        <f t="shared" si="4"/>
         <v>παιδίον</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -15397,7 +15907,7 @@
         <v>1297</v>
       </c>
       <c r="B300" t="str">
-        <f>LEFT(A300,IFERROR(FIND(",",A300)-1,LEN(A300)))</f>
+        <f t="shared" si="4"/>
         <v>ἐπαγγελία</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -15415,7 +15925,7 @@
         <v>1300</v>
       </c>
       <c r="B301" t="str">
-        <f>LEFT(A301,IFERROR(FIND(",",A301)-1,LEN(A301)))</f>
+        <f t="shared" si="4"/>
         <v>ἔσχατος</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -15433,7 +15943,7 @@
         <v>393</v>
       </c>
       <c r="B302" t="str">
-        <f>LEFT(A302,IFERROR(FIND(",",A302)-1,LEN(A302)))</f>
+        <f t="shared" si="4"/>
         <v>πείθω</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -15451,7 +15961,7 @@
         <v>334</v>
       </c>
       <c r="B303" t="str">
-        <f>LEFT(A303,IFERROR(FIND(",",A303)-1,LEN(A303)))</f>
+        <f t="shared" si="4"/>
         <v>σπείρω</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -15469,7 +15979,7 @@
         <v>1306</v>
       </c>
       <c r="B304" t="str">
-        <f>LEFT(A304,IFERROR(FIND(",",A304)-1,LEN(A304)))</f>
+        <f t="shared" si="4"/>
         <v>εὐθύς</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -15487,7 +15997,7 @@
         <v>1309</v>
       </c>
       <c r="B305" t="str">
-        <f>LEFT(A305,IFERROR(FIND(",",A305)-1,LEN(A305)))</f>
+        <f t="shared" si="4"/>
         <v>σοφία</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -15505,7 +16015,7 @@
         <v>1312</v>
       </c>
       <c r="B306" t="str">
-        <f>LEFT(A306,IFERROR(FIND(",",A306)-1,LEN(A306)))</f>
+        <f t="shared" si="4"/>
         <v>γλῶσσα</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -15523,7 +16033,7 @@
         <v>1315</v>
       </c>
       <c r="B307" t="str">
-        <f>LEFT(A307,IFERROR(FIND(",",A307)-1,LEN(A307)))</f>
+        <f t="shared" si="4"/>
         <v>γραφή</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -15541,7 +16051,7 @@
         <v>554</v>
       </c>
       <c r="B308" t="str">
-        <f>LEFT(A308,IFERROR(FIND(",",A308)-1,LEN(A308)))</f>
+        <f t="shared" si="4"/>
         <v>κακός</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -15559,7 +16069,7 @@
         <v>580</v>
       </c>
       <c r="B309" t="str">
-        <f>LEFT(A309,IFERROR(FIND(",",A309)-1,LEN(A309)))</f>
+        <f t="shared" si="4"/>
         <v>μακάριος</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -15577,7 +16087,7 @@
         <v>1320</v>
       </c>
       <c r="B310" t="str">
-        <f>LEFT(A310,IFERROR(FIND(",",A310)-1,LEN(A310)))</f>
+        <f t="shared" si="4"/>
         <v>παραβολή</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -15595,7 +16105,7 @@
         <v>583</v>
       </c>
       <c r="B311" t="str">
-        <f>LEFT(A311,IFERROR(FIND(",",A311)-1,LEN(A311)))</f>
+        <f t="shared" si="4"/>
         <v>τυφλός</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -15614,7 +16124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16026,10 +16536,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -16365,29 +16875,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>1389</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>346</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>17</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>23</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>2</v>
       </c>
     </row>
@@ -16497,4 +17007,2114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542A4785-2185-7548-914E-AC26F94731F4}">
+  <dimension ref="A1:D260"/>
+  <sheetViews>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H261" sqref="H261"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D408C1-10D4-ED40-ACB6-5D7A6B1773C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>